--- a/docs/PT2/PT2_16.08.2024_output.xlsx
+++ b/docs/PT2/PT2_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731604993.0492916</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731604994.6992896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604993.0492916.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604994.6992896.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.46</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1400000000000432</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731604995.5205352</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731604996.1319988</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604995.5205352.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604996.1319988.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.52</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.46</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731604996.9690154</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731604997.3468437</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604996.9690154.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604997.3468437.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.73</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731604998.6097775</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731605000.1602693</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604998.6097775.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731605000.1602693.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.14</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.79</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731605001.1720705</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731605001.7290573</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731605001.1720705.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731605001.7290573.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.86</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.79</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731605005.1402364</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731605005.5788813</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731605005.1402364.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731605005.5788813.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.29</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.37</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731605009.425729</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731605010.8579154</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605009.425729.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605010.8579154.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.46</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1400000000000432</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731605011.5570183</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731605012.0776253</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605011.5570183.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605012.0776253.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>277.52</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.46</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731605012.8615284</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731605013.191672</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605012.8615284.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605013.191672.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.73</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731605014.3555307</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731605015.7408528</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605014.3555307.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605015.7408528.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.14</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.79</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731605016.6673758</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731605017.1012201</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605016.6673758.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605017.1012201.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.86</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.79</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731605019.8239284</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731605020.2338321</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605019.8239284.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605020.2338321.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.29</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.37</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731605023.5175269</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731605025.7302608</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605023.5175269.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605025.7302608.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>277.59</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.24</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.6500000000000341</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731605025.746218</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731605026.6789048</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605025.746218.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605026.6789048.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.24</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>277.92</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.3199999999999932</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731605027.7139344</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731605028.076365</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605027.7139344.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605028.076365.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>278.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>277.99</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731605029.7999783</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731605030.205566</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605029.7999783.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605030.205566.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>278.41</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>278.82</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4099999999999682</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731605030.5325878</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731605032.2175472</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605030.5325878.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605032.2175472.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>278.68</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>278.13</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.5500000000000114</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731605034.531003</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731605034.7631173</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605034.531003.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731605034.7631173.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>278.22</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>278.01</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2100000000000364</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1475,95 +1599,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731605036.9743924</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731605036.9743924.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731605036.9743924.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>278.41</v>
       </c>
-      <c r="J21" t="n">
-        <v>278.41</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>278.65</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2399999999999523</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731605040.2826266</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731605040.7362883</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605040.2826266.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605040.7362883.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.41</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.29</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731605040.8089468</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731605041.9229846</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605040.8089468.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605041.9229846.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>127.57</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.1699999999999875</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731605042.6316316</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731605043.2265804</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605042.6316316.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605043.2265804.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.53</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>127.48</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731605044.5095522</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731605045.4770377</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605044.5095522.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605045.4770377.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>127.1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>126.87</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2299999999999898</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731605046.0132642</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731605046.7394342</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605046.0132642.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605046.7394342.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>126.9</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>127.15</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731605047.7724001</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731605048.3452382</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605047.7724001.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605048.3452382.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>127.27</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>127.27</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731605051.1450229</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731605052.2247486</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605051.1450229.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605052.2247486.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>127.18</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>127.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731605054.7850156</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731605055.4699283</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605054.7850156.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731605055.4699283.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>127.88</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>128.08</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731605058.3121362</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731605059.6345592</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605058.3121362.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605059.6345592.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6318.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6322.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-4</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731605061.7483737</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731605062.2880914</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605061.7483737.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605062.2880914.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6312</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6305.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>6.5</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731605063.2009547</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731605065.501231</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605063.2009547.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605065.501231.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6303</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6311</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-8</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731605068.7554169</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731605068.907354</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605068.7554169.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605068.907354.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6301</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6294.5</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>6.5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731605069.0965533</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731605069.6987963</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605069.0965533.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605069.6987963.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6299</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>6306</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-7</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731605071.4987047</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731605071.915915</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605071.4987047.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605071.915915.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>6313.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>6322.5</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>9</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731605072.2655401</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731605073.3809552</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605072.2655401.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731605073.3809552.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>6319</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>6313</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-6</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731605074.271584</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731605075.6646056</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605074.271584.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605075.6646056.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>494.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>494.95</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731605077.1617699</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731605079.7145295</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605077.1617699.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605079.7145295.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>495.15</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>494.45</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.6999999999999886</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731605079.7295175</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731605080.2684326</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605079.7295175.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605080.2684326.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>494.45</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>493.9</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731605081.002484</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731605081.219134</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605081.002484.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605081.219134.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>493.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>493</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731605081.4586232</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731605082.5579953</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605081.4586232.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605082.5579953.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>493.65</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>493.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.04999999999995453</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731605085.8538876</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731605086.4924262</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605085.8538876.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605086.4924262.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>492.65</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>492.05</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.5999999999999659</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2611,51 +2867,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731605086.642459</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731605087.9224002</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605086.642459.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605087.9224002.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>492.25</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>493.1</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.8500000000000227</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731605090.0425305</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731605091.134991</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605090.0425305.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731605091.134991.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>493.9</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>494.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2715,51 +2983,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731605091.8102412</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731605094.7741165</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605091.8102412.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605094.7741165.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>222.99</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>223.89</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2767,51 +3041,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731605094.7900743</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731605097.166831</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605094.7900743.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605097.166831.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>223.89</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>223.9</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.01000000000001933</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2819,51 +3099,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731605099.332926</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731605099.5173059</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605099.332926.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605099.5173059.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>223.52</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>223.28</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2871,51 +3157,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731605099.5747147</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731605101.4992073</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605099.5747147.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731605101.4992073.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>223.32</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>223.76</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2923,51 +3215,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731605113.522977</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731605114.4879918</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605113.522977.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605114.4879918.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1019</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1017.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2975,51 +3273,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731605114.9861615</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731605115.1936305</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605114.9861615.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605115.1936305.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1018</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1015</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>3</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3027,51 +3331,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731605116.3898275</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731605117.1300406</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605116.3898275.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605117.1300406.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1018.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1018.6</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3079,51 +3389,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731605119.8978474</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731605120.2096946</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605119.8978474.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605120.2096946.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1014.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1013.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3131,51 +3447,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731605120.3874774</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731605121.2485626</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605120.3874774.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731605121.2485626.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1013.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1013.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3183,51 +3505,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731605125.1302078</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731605126.3803902</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605125.1302078.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605126.3803902.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>12.113</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>12.123</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3235,51 +3563,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731605127.4331803</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731605130.5170372</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605127.4331803.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605130.5170372.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>12.14</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>12.109</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.03100000000000058</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -3287,51 +3621,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731605136.3487895</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731605136.4938807</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605136.3487895.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605136.4938807.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>12.085</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>12.075</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.01000000000000156</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3339,51 +3679,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731605136.9017363</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731605138.548766</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605136.9017363.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605138.548766.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>12.079</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>12.089</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.009999999999999787</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3391,51 +3737,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731605140.0499415</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731605140.4105203</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605140.0499415.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731605140.4105203.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>12.083</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>12.08</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3443,51 +3795,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731605143.4086223</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731605144.3883774</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605143.4086223.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605144.3883774.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>124.9</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>125.08</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.1799999999999926</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3495,51 +3853,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731605145.3481526</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731605145.52421</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605145.3481526.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605145.52421.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>125.08</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>125.02</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3547,51 +3911,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731605146.885599</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731605147.402089</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605146.885599.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605147.402089.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>124.9</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>124.96</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.05999999999998806</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3599,51 +3969,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731605148.6833386</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731605150.4055865</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605148.6833386.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605150.4055865.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>124.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>124.72</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3651,51 +4027,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731605153.1814222</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731605153.9338949</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605153.1814222.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605153.9338949.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>125.38</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>125.58</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3703,51 +4085,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731605154.597219</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731605155.3448813</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605154.597219.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605155.3448813.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>125.58</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>125.38</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3755,51 +4143,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731605156.818668</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731605157.485451</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605156.818668.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731605157.485451.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>126.14</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>126.7</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -3807,51 +4201,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731605159.0771308</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731605159.2103186</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605159.0771308.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605159.2103186.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>161.62</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>161.26</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.3600000000000136</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3859,51 +4259,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731605159.2611816</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731605159.710976</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605159.2611816.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605159.710976.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>161.5</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>161.02</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3911,51 +4317,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731605159.9597278</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731605161.260397</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605159.9597278.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605161.260397.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>161.36</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>161.96</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.5999999999999943</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3963,51 +4375,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731605162.9496884</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731605163.6392415</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605162.9496884.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605163.6392415.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>161.72</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>161.8</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4015,51 +4433,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731605167.8091965</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731605169.8910093</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605167.8091965.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731605169.8910093.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>162.12</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>162.2</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4067,95 +4491,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731605172.669546</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731605172.669546.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731605172.669546.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>162.92</v>
       </c>
-      <c r="J71" t="n">
-        <v>162.92</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>162.94</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731605176.4512</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731605177.8923583</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605176.4512.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605177.8923583.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>49.7</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>49.685</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4163,51 +4599,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731605183.4853868</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731605184.8297417</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605183.4853868.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605184.8297417.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>49.735</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>49.695</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4215,51 +4657,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731605186.27513</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731605187.2798462</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605186.27513.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605187.2798462.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>49.67</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>49.665</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -4267,51 +4715,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731605189.1471717</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731605190.2731016</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605189.1471717.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731605190.2731016.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>49.795</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>49.84</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4319,51 +4773,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731605192.231519</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731605192.4533823</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605192.231519.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605192.4533823.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1381</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1379.6</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4371,51 +4831,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731605192.6691537</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731605192.839342</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605192.6691537.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605192.839342.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1377</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4423,51 +4889,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731605194.2020793</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731605195.0506556</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605194.2020793.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605195.0506556.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1378.2</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4475,51 +4947,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731605195.867908</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731605196.697658</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605195.867908.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605196.697658.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>1376.6</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>1375.6</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4527,51 +5005,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731605197.0219445</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731605197.7893002</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605197.0219445.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605197.7893002.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>1377</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-1.400000000000091</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4579,51 +5063,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731605204.5006132</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731605206.143906</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605204.5006132.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731605206.143906.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>1385.8</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>1388</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4631,51 +5121,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731605208.2419326</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731605208.5937247</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605208.2419326.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605208.5937247.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>58.83</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>58.81</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4683,51 +5179,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731605209.588642</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731605210.971199</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605209.588642.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605210.971199.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>58.9</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>58.85</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4735,51 +5237,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731605213.32</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731605213.455217</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605213.32.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605213.455217.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>58.76</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>58.72</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4787,51 +5295,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731605213.5228195</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731605214.0419126</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605213.5228195.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605214.0419126.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>58.8</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>58.8</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4839,51 +5353,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731605217.2875617</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731605217.6473124</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605217.2875617.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605217.6473124.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>58.67</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>58.63</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4891,51 +5411,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731605217.78898</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731605218.8940268</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605217.78898.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605218.8940268.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>58.65</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>58.62</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4943,51 +5469,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731605219.5852456</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731605220.0784183</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605219.5852456.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731605220.0784183.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>58.61</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>58.55</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4995,51 +5527,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731605230.4358342</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731605231.7379687</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605230.4358342.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605231.7379687.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>98.48999999999999</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>98.7</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.210000000000008</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -5047,51 +5585,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731605233.5542514</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731605233.958685</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605233.5542514.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605233.958685.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>98.84</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>98.98999999999999</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1499999999999915</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -5099,51 +5643,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731605234.0165663</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731605234.302072</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605234.0165663.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605234.302072.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>98.86</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>98.94</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5151,51 +5701,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731605234.3978145</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731605234.5470932</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605234.3978145.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605234.5470932.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>98.87</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>98.95</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5203,51 +5759,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731605234.77946</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731605235.6189542</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605234.77946.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605235.6189542.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>98.91</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5255,51 +5817,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731605238.2356422</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731605238.7779593</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605238.2356422.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605238.7779593.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>99.05</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>99.25</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -5307,51 +5875,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731605239.2507198</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731605239.9992177</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605239.2507198.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731605239.9992177.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>99.16</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>99.61</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -5359,51 +5933,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731605242.5598645</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731605244.6263733</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731605242.5598645.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731605244.6263733.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>54.48</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>54.43</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -5411,51 +5991,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731605249.3231902</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731605250.8253686</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731605249.3231902.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731605250.8253686.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>54.35</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>54.3</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -5463,51 +6049,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731605252.998921</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731605253.986253</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731605252.998921.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731605253.986253.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>54.64</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>54.79</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -5515,51 +6107,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731605256.2055</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731605256.2900708</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731605256.2055.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731605256.2900708.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>152.7</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>152.52</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5567,51 +6165,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731605259.3084147</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731605261.3094141</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731605259.3084147.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731605261.3094141.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>153.06</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>152.7</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.3600000000000136</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -5619,51 +6223,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731605263.7825344</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731605266.4621623</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731605263.7825344.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731605266.4621623.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>152.12</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>152.46</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -5671,95 +6281,107 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731605268.4546156</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731605268.4546156.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731605268.4546156.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>0.3041</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.3056</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-0.001500000000000001</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731605273.2654781</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731605273.7708602</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605273.2654781.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605273.7708602.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>19.85</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>19.85</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5767,51 +6389,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731605274.6132886</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731605276.2335973</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605274.6132886.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605276.2335973.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>19.785</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>19.732</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0.05300000000000082</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -5819,51 +6447,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731605276.7857203</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731605276.9613302</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605276.7857203.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605276.9613302.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>19.799</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>19.76</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.03899999999999793</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -5871,51 +6505,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731605286.0930042</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731605287.001188</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605286.0930042.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605287.001188.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>19.853</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>19.928</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.07499999999999929</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -5923,51 +6563,57 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731605287.6626318</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731605288.499395</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605287.6626318.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731605288.499395.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>19.932</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>19.967</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.03500000000000014</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5975,95 +6621,107 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731605290.0085688</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731605290.0085688.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731605290.0085688.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>19.959</v>
       </c>
-      <c r="J108" t="n">
-        <v>19.959</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>19.97</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.01099999999999923</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731605294.6628356</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731605295.4301624</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605294.6628356.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605295.4301624.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>676</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>675.7</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -6071,51 +6729,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731605296.2042928</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731605297.8785403</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605296.2042928.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605297.8785403.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>675.6</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>675.6</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6123,51 +6787,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731605300.8216386</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731605301.4870756</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605300.8216386.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605301.4870756.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>674.4</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>671.1</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>3.299999999999955</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -6175,51 +6845,57 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731605302.0045722</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731605303.1023517</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605302.0045722.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731605303.1023517.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>673.65</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>675.5</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-1.850000000000023</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -6227,51 +6903,57 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731605315.0330775</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731605315.525201</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731605315.0330775.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731605315.525201.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>148.37</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>148.21</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -6279,51 +6961,57 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731605319.4124837</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731605319.4733772</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731605319.4124837.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731605319.4733772.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>148.95</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>149.1</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -6331,51 +7019,57 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731605319.6191697</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731605320.8773003</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731605319.6191697.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731605320.8773003.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>149.05</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>149.1</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.04999999999998295</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -6383,44 +7077,50 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731605321.3048816</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731605321.3048816.png</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731605321.3048816.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>149.1</v>
       </c>
-      <c r="J116" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>149.02</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -6481,16 +7181,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.230000000000075</v>
+        <v>-0.9900000000001228</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09461538461539039</v>
+        <v>-0.07615384615385559</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.44</v>
+        <v>-0.35</v>
       </c>
       <c r="F2" t="n">
         <v>-0.03</v>
@@ -6635,19 +7335,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2019999999999982</v>
+        <v>0.2129999999999974</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03366666666666637</v>
+        <v>0.03549999999999957</v>
       </c>
       <c r="E9" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10">
@@ -6701,16 +7401,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000159</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06666666666666761</v>
+        <v>0.07000000000000266</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F12" t="n">
         <v>0.04</v>
@@ -6789,19 +7489,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3599999999999852</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08999999999999631</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="E16" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
@@ -6899,19 +7599,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="22">
